--- a/natmiOut/OldD7/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.6271729085533</v>
+        <v>15.140316</v>
       </c>
       <c r="H2">
-        <v>14.6271729085533</v>
+        <v>45.420948</v>
       </c>
       <c r="I2">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="J2">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.745864018642898</v>
+        <v>0.7567149999999999</v>
       </c>
       <c r="N2">
-        <v>0.745864018642898</v>
+        <v>2.270145</v>
       </c>
       <c r="O2">
-        <v>0.08431521560172912</v>
+        <v>0.07973436174489927</v>
       </c>
       <c r="P2">
-        <v>0.08431521560172912</v>
+        <v>0.07973436174489928</v>
       </c>
       <c r="Q2">
-        <v>10.90988196695809</v>
+        <v>11.45690422194</v>
       </c>
       <c r="R2">
-        <v>10.90988196695809</v>
+        <v>103.11213799746</v>
       </c>
       <c r="S2">
-        <v>0.02787122690617577</v>
+        <v>0.02574747919222888</v>
       </c>
       <c r="T2">
-        <v>0.02787122690617577</v>
+        <v>0.02574747919222888</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.6271729085533</v>
+        <v>15.140316</v>
       </c>
       <c r="H3">
-        <v>14.6271729085533</v>
+        <v>45.420948</v>
       </c>
       <c r="I3">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="J3">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.40953894575518</v>
+        <v>3.474244666666667</v>
       </c>
       <c r="N3">
-        <v>3.40953894575518</v>
+        <v>10.422734</v>
       </c>
       <c r="O3">
-        <v>0.3854268393813979</v>
+        <v>0.3660779567502785</v>
       </c>
       <c r="P3">
-        <v>0.3854268393813979</v>
+        <v>0.3660779567502786</v>
       </c>
       <c r="Q3">
-        <v>49.87191569800755</v>
+        <v>52.601162114648</v>
       </c>
       <c r="R3">
-        <v>49.87191569800755</v>
+        <v>473.410459031832</v>
       </c>
       <c r="S3">
-        <v>0.1274066468248324</v>
+        <v>0.1182123286358962</v>
       </c>
       <c r="T3">
-        <v>0.1274066468248324</v>
+        <v>0.1182123286358962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.6271729085533</v>
+        <v>15.140316</v>
       </c>
       <c r="H4">
-        <v>14.6271729085533</v>
+        <v>45.420948</v>
       </c>
       <c r="I4">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="J4">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.01802973948151</v>
+        <v>2.264125333333333</v>
       </c>
       <c r="N4">
-        <v>2.01802973948151</v>
+        <v>6.792376</v>
       </c>
       <c r="O4">
-        <v>0.2281255139303735</v>
+        <v>0.2385687985090697</v>
       </c>
       <c r="P4">
-        <v>0.2281255139303735</v>
+        <v>0.2385687985090697</v>
       </c>
       <c r="Q4">
-        <v>29.51806993399882</v>
+        <v>34.279573010272</v>
       </c>
       <c r="R4">
-        <v>29.51806993399882</v>
+        <v>308.516157092448</v>
       </c>
       <c r="S4">
-        <v>0.0754091407638055</v>
+        <v>0.07703761641912514</v>
       </c>
       <c r="T4">
-        <v>0.0754091407638055</v>
+        <v>0.07703761641912514</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.6271729085533</v>
+        <v>15.140316</v>
       </c>
       <c r="H5">
-        <v>14.6271729085533</v>
+        <v>45.420948</v>
       </c>
       <c r="I5">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="J5">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.67270512924957</v>
+        <v>2.995365333333333</v>
       </c>
       <c r="N5">
-        <v>2.67270512924957</v>
+        <v>8.986096</v>
       </c>
       <c r="O5">
-        <v>0.3021324310864993</v>
+        <v>0.3156188829957525</v>
       </c>
       <c r="P5">
-        <v>0.3021324310864993</v>
+        <v>0.3156188829957525</v>
       </c>
       <c r="Q5">
-        <v>39.09412005911075</v>
+        <v>45.350777682112</v>
       </c>
       <c r="R5">
-        <v>39.09412005911075</v>
+        <v>408.156999139008</v>
       </c>
       <c r="S5">
-        <v>0.09987285785169293</v>
+        <v>0.1019183002756966</v>
       </c>
       <c r="T5">
-        <v>0.09987285785169293</v>
+        <v>0.1019183002756966</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.8858540144953</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H6">
-        <v>18.8858540144953</v>
+        <v>56.822099</v>
       </c>
       <c r="I6">
-        <v>0.4268019207276728</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="J6">
-        <v>0.4268019207276728</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.745864018642898</v>
+        <v>0.7567149999999999</v>
       </c>
       <c r="N6">
-        <v>0.745864018642898</v>
+        <v>2.270145</v>
       </c>
       <c r="O6">
-        <v>0.08431521560172912</v>
+        <v>0.07973436174489927</v>
       </c>
       <c r="P6">
-        <v>0.08431521560172912</v>
+        <v>0.07973436174489928</v>
       </c>
       <c r="Q6">
-        <v>14.08627897075457</v>
+        <v>14.33271154826167</v>
       </c>
       <c r="R6">
-        <v>14.08627897075457</v>
+        <v>128.994403934355</v>
       </c>
       <c r="S6">
-        <v>0.03598589596538583</v>
+        <v>0.03221037596267848</v>
       </c>
       <c r="T6">
-        <v>0.03598589596538583</v>
+        <v>0.03221037596267849</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.8858540144953</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H7">
-        <v>18.8858540144953</v>
+        <v>56.822099</v>
       </c>
       <c r="I7">
-        <v>0.4268019207276728</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="J7">
-        <v>0.4268019207276728</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.40953894575518</v>
+        <v>3.474244666666667</v>
       </c>
       <c r="N7">
-        <v>3.40953894575518</v>
+        <v>10.422734</v>
       </c>
       <c r="O7">
-        <v>0.3854268393813979</v>
+        <v>0.3660779567502785</v>
       </c>
       <c r="P7">
-        <v>0.3854268393813979</v>
+        <v>0.3660779567502786</v>
       </c>
       <c r="Q7">
-        <v>64.39205478626855</v>
+        <v>65.80462479985178</v>
       </c>
       <c r="R7">
-        <v>64.39205478626855</v>
+        <v>592.241623198666</v>
       </c>
       <c r="S7">
-        <v>0.1645009153479769</v>
+        <v>0.1478849063381378</v>
       </c>
       <c r="T7">
-        <v>0.1645009153479769</v>
+        <v>0.1478849063381378</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.8858540144953</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H8">
-        <v>18.8858540144953</v>
+        <v>56.822099</v>
       </c>
       <c r="I8">
-        <v>0.4268019207276728</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="J8">
-        <v>0.4268019207276728</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.01802973948151</v>
+        <v>2.264125333333333</v>
       </c>
       <c r="N8">
-        <v>2.01802973948151</v>
+        <v>6.792376</v>
       </c>
       <c r="O8">
-        <v>0.2281255139303735</v>
+        <v>0.2385687985090697</v>
       </c>
       <c r="P8">
-        <v>0.2281255139303735</v>
+        <v>0.2385687985090697</v>
       </c>
       <c r="Q8">
-        <v>38.11221505675778</v>
+        <v>42.88411794635822</v>
       </c>
       <c r="R8">
-        <v>38.11221505675778</v>
+        <v>385.957061517224</v>
       </c>
       <c r="S8">
-        <v>0.09736440751247089</v>
+        <v>0.09637489439655805</v>
       </c>
       <c r="T8">
-        <v>0.09736440751247089</v>
+        <v>0.09637489439655805</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.8858540144953</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H9">
-        <v>18.8858540144953</v>
+        <v>56.822099</v>
       </c>
       <c r="I9">
-        <v>0.4268019207276728</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="J9">
-        <v>0.4268019207276728</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.67270512924957</v>
+        <v>2.995365333333333</v>
       </c>
       <c r="N9">
-        <v>2.67270512924957</v>
+        <v>8.986096</v>
       </c>
       <c r="O9">
-        <v>0.3021324310864993</v>
+        <v>0.3156188829957525</v>
       </c>
       <c r="P9">
-        <v>0.3021324310864993</v>
+        <v>0.3156188829957525</v>
       </c>
       <c r="Q9">
-        <v>50.47631889480017</v>
+        <v>56.73431517061156</v>
       </c>
       <c r="R9">
-        <v>50.47631889480017</v>
+        <v>510.608836535504</v>
       </c>
       <c r="S9">
-        <v>0.1289507019018391</v>
+        <v>0.1275008999851205</v>
       </c>
       <c r="T9">
-        <v>0.1289507019018391</v>
+        <v>0.1275008999851205</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.42028061199919</v>
+        <v>3.221232</v>
       </c>
       <c r="H10">
-        <v>2.42028061199919</v>
+        <v>9.663696</v>
       </c>
       <c r="I10">
-        <v>0.05469598637733654</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="J10">
-        <v>0.05469598637733654</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.745864018642898</v>
+        <v>0.7567149999999999</v>
       </c>
       <c r="N10">
-        <v>0.745864018642898</v>
+        <v>2.270145</v>
       </c>
       <c r="O10">
-        <v>0.08431521560172912</v>
+        <v>0.07973436174489927</v>
       </c>
       <c r="P10">
-        <v>0.08431521560172912</v>
+        <v>0.07973436174489928</v>
       </c>
       <c r="Q10">
-        <v>1.805200223509208</v>
+        <v>2.43755457288</v>
       </c>
       <c r="R10">
-        <v>1.805200223509208</v>
+        <v>21.93799115592</v>
       </c>
       <c r="S10">
-        <v>0.00461170388395437</v>
+        <v>0.005477996885490489</v>
       </c>
       <c r="T10">
-        <v>0.00461170388395437</v>
+        <v>0.00547799688549049</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.42028061199919</v>
+        <v>3.221232</v>
       </c>
       <c r="H11">
-        <v>2.42028061199919</v>
+        <v>9.663696</v>
       </c>
       <c r="I11">
-        <v>0.05469598637733654</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="J11">
-        <v>0.05469598637733654</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.40953894575518</v>
+        <v>3.474244666666667</v>
       </c>
       <c r="N11">
-        <v>3.40953894575518</v>
+        <v>10.422734</v>
       </c>
       <c r="O11">
-        <v>0.3854268393813979</v>
+        <v>0.3660779567502785</v>
       </c>
       <c r="P11">
-        <v>0.3854268393813979</v>
+        <v>0.3660779567502786</v>
       </c>
       <c r="Q11">
-        <v>8.252041006267421</v>
+        <v>11.191348096096</v>
       </c>
       <c r="R11">
-        <v>8.252041006267421</v>
+        <v>100.722132864864</v>
       </c>
       <c r="S11">
-        <v>0.02108130115626482</v>
+        <v>0.02515068614132394</v>
       </c>
       <c r="T11">
-        <v>0.02108130115626482</v>
+        <v>0.02515068614132394</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.42028061199919</v>
+        <v>3.221232</v>
       </c>
       <c r="H12">
-        <v>2.42028061199919</v>
+        <v>9.663696</v>
       </c>
       <c r="I12">
-        <v>0.05469598637733654</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="J12">
-        <v>0.05469598637733654</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.01802973948151</v>
+        <v>2.264125333333333</v>
       </c>
       <c r="N12">
-        <v>2.01802973948151</v>
+        <v>6.792376</v>
       </c>
       <c r="O12">
-        <v>0.2281255139303735</v>
+        <v>0.2385687985090697</v>
       </c>
       <c r="P12">
-        <v>0.2281255139303735</v>
+        <v>0.2385687985090697</v>
       </c>
       <c r="Q12">
-        <v>4.884198252904875</v>
+        <v>7.293272975744</v>
       </c>
       <c r="R12">
-        <v>4.884198252904875</v>
+        <v>65.639456781696</v>
       </c>
       <c r="S12">
-        <v>0.01247755000225861</v>
+        <v>0.01639041319963278</v>
       </c>
       <c r="T12">
-        <v>0.01247755000225861</v>
+        <v>0.01639041319963278</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.42028061199919</v>
+        <v>3.221232</v>
       </c>
       <c r="H13">
-        <v>2.42028061199919</v>
+        <v>9.663696</v>
       </c>
       <c r="I13">
-        <v>0.05469598637733654</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="J13">
-        <v>0.05469598637733654</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.67270512924957</v>
+        <v>2.995365333333333</v>
       </c>
       <c r="N13">
-        <v>2.67270512924957</v>
+        <v>8.986096</v>
       </c>
       <c r="O13">
-        <v>0.3021324310864993</v>
+        <v>0.3156188829957525</v>
       </c>
       <c r="P13">
-        <v>0.3021324310864993</v>
+        <v>0.3156188829957525</v>
       </c>
       <c r="Q13">
-        <v>6.468696405913523</v>
+        <v>9.648766663424</v>
       </c>
       <c r="R13">
-        <v>6.468696405913523</v>
+        <v>86.838899970816</v>
       </c>
       <c r="S13">
-        <v>0.01652543133485873</v>
+        <v>0.02168399194796744</v>
       </c>
       <c r="T13">
-        <v>0.01652543133485873</v>
+        <v>0.02168399194796744</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.316385583239979</v>
+        <v>9.584029000000001</v>
       </c>
       <c r="H14">
-        <v>8.316385583239979</v>
+        <v>28.752087</v>
       </c>
       <c r="I14">
-        <v>0.1879422205484841</v>
+        <v>0.2044101106201438</v>
       </c>
       <c r="J14">
-        <v>0.1879422205484841</v>
+        <v>0.2044101106201438</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.745864018642898</v>
+        <v>0.7567149999999999</v>
       </c>
       <c r="N14">
-        <v>0.745864018642898</v>
+        <v>2.270145</v>
       </c>
       <c r="O14">
-        <v>0.08431521560172912</v>
+        <v>0.07973436174489927</v>
       </c>
       <c r="P14">
-        <v>0.08431521560172912</v>
+        <v>0.07973436174489928</v>
       </c>
       <c r="Q14">
-        <v>6.202892771699232</v>
+        <v>7.252378504735</v>
       </c>
       <c r="R14">
-        <v>6.202892771699232</v>
+        <v>65.271406542615</v>
       </c>
       <c r="S14">
-        <v>0.01584638884621316</v>
+        <v>0.01629850970450142</v>
       </c>
       <c r="T14">
-        <v>0.01584638884621316</v>
+        <v>0.01629850970450143</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.316385583239979</v>
+        <v>9.584029000000001</v>
       </c>
       <c r="H15">
-        <v>8.316385583239979</v>
+        <v>28.752087</v>
       </c>
       <c r="I15">
-        <v>0.1879422205484841</v>
+        <v>0.2044101106201438</v>
       </c>
       <c r="J15">
-        <v>0.1879422205484841</v>
+        <v>0.2044101106201438</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.40953894575518</v>
+        <v>3.474244666666667</v>
       </c>
       <c r="N15">
-        <v>3.40953894575518</v>
+        <v>10.422734</v>
       </c>
       <c r="O15">
-        <v>0.3854268393813979</v>
+        <v>0.3660779567502785</v>
       </c>
       <c r="P15">
-        <v>0.3854268393813979</v>
+        <v>0.3660779567502786</v>
       </c>
       <c r="Q15">
-        <v>28.35504053397361</v>
+        <v>33.29726163842867</v>
       </c>
       <c r="R15">
-        <v>28.35504053397361</v>
+        <v>299.675354745858</v>
       </c>
       <c r="S15">
-        <v>0.07243797605232385</v>
+        <v>0.07483003563492066</v>
       </c>
       <c r="T15">
-        <v>0.07243797605232385</v>
+        <v>0.07483003563492067</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.316385583239979</v>
+        <v>9.584029000000001</v>
       </c>
       <c r="H16">
-        <v>8.316385583239979</v>
+        <v>28.752087</v>
       </c>
       <c r="I16">
-        <v>0.1879422205484841</v>
+        <v>0.2044101106201438</v>
       </c>
       <c r="J16">
-        <v>0.1879422205484841</v>
+        <v>0.2044101106201438</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.01802973948151</v>
+        <v>2.264125333333333</v>
       </c>
       <c r="N16">
-        <v>2.01802973948151</v>
+        <v>6.792376</v>
       </c>
       <c r="O16">
-        <v>0.2281255139303735</v>
+        <v>0.2385687985090697</v>
       </c>
       <c r="P16">
-        <v>0.2281255139303735</v>
+        <v>0.2385687985090697</v>
       </c>
       <c r="Q16">
-        <v>16.78271343197356</v>
+        <v>21.69944285430133</v>
       </c>
       <c r="R16">
-        <v>16.78271343197356</v>
+        <v>195.294985688712</v>
       </c>
       <c r="S16">
-        <v>0.04287441565183854</v>
+        <v>0.04876587449375373</v>
       </c>
       <c r="T16">
-        <v>0.04287441565183854</v>
+        <v>0.04876587449375374</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.316385583239979</v>
+        <v>9.584029000000001</v>
       </c>
       <c r="H17">
-        <v>8.316385583239979</v>
+        <v>28.752087</v>
       </c>
       <c r="I17">
-        <v>0.1879422205484841</v>
+        <v>0.2044101106201438</v>
       </c>
       <c r="J17">
-        <v>0.1879422205484841</v>
+        <v>0.2044101106201438</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.67270512924957</v>
+        <v>2.995365333333333</v>
       </c>
       <c r="N17">
-        <v>2.67270512924957</v>
+        <v>8.986096</v>
       </c>
       <c r="O17">
-        <v>0.3021324310864993</v>
+        <v>0.3156188829957525</v>
       </c>
       <c r="P17">
-        <v>0.3021324310864993</v>
+        <v>0.3156188829957525</v>
       </c>
       <c r="Q17">
-        <v>22.22724640514267</v>
+        <v>28.70766822026134</v>
       </c>
       <c r="R17">
-        <v>22.22724640514267</v>
+        <v>258.369013982352</v>
       </c>
       <c r="S17">
-        <v>0.05678343999810852</v>
+        <v>0.06451569078696799</v>
       </c>
       <c r="T17">
-        <v>0.05678343999810852</v>
+        <v>0.06451569078696799</v>
       </c>
     </row>
   </sheetData>
